--- a/data/matriz_distancia_km.xlsx
+++ b/data/matriz_distancia_km.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/Enex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{2386D2C9-2928-420E-921C-8A021520EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB6B9F28-A19E-43B7-91FC-BF5C8BAA8BC5}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{2386D2C9-2928-420E-921C-8A021520EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF67E0A5-241D-4CD0-BC47-98C042EE323B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4799A18B-3B60-4268-95BB-1F3B1A1CDF40}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{4799A18B-3B60-4268-95BB-1F3B1A1CDF40}"/>
   </bookViews>
   <sheets>
     <sheet name="distancia_km" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,10 @@
     <t>ciudad</t>
   </si>
   <si>
-    <t>Valparaiso</t>
+    <t>Puerto Chacabuco</t>
   </si>
   <si>
-    <t>Puerto Aysen</t>
+    <t>Valparaíso</t>
   </si>
 </sst>
 </file>
@@ -612,20 +612,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1001,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C59B91-2C7F-4782-9872-147587B16ED9}">
-  <dimension ref="A1:AF66"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1032,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1103,8 +1091,8 @@
       <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
+      <c r="AF1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.45">
@@ -1160,7 +1148,7 @@
         <v>65.725999999999999</v>
       </c>
       <c r="R2">
-        <v>2261.4299999999998</v>
+        <v>2261.0990000000002</v>
       </c>
       <c r="S2">
         <v>950.56700000000001</v>
@@ -1172,7 +1160,7 @@
         <v>2364.1669999999999</v>
       </c>
       <c r="V2">
-        <v>4108.6180000000004</v>
+        <v>4108.6210000000001</v>
       </c>
       <c r="W2">
         <v>4896.4070000000002</v>
@@ -1258,7 +1246,7 @@
         <v>683.10500000000002</v>
       </c>
       <c r="R3">
-        <v>2962.721</v>
+        <v>2962.3890000000001</v>
       </c>
       <c r="S3">
         <v>1651.8579999999999</v>
@@ -1270,7 +1258,7 @@
         <v>3065.4569999999999</v>
       </c>
       <c r="V3">
-        <v>4809.9080000000004</v>
+        <v>4809.9110000000001</v>
       </c>
       <c r="W3">
         <v>5597.6970000000001</v>
@@ -1308,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1864.84</v>
+        <v>1864.8409999999999</v>
       </c>
       <c r="C4">
         <v>2564.3989999999999</v>
@@ -1356,7 +1344,7 @@
         <v>1935.672</v>
       </c>
       <c r="R4">
-        <v>510.18400000000003</v>
+        <v>509.85300000000001</v>
       </c>
       <c r="S4">
         <v>933.88699999999994</v>
@@ -1368,7 +1356,7 @@
         <v>612.92100000000005</v>
       </c>
       <c r="V4">
-        <v>2357.3719999999998</v>
+        <v>2357.375</v>
       </c>
       <c r="W4">
         <v>3145.1610000000001</v>
@@ -1406,97 +1394,97 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>216.351</v>
+        <v>216.58500000000001</v>
       </c>
       <c r="C5">
         <v>599.84500000000003</v>
       </c>
       <c r="D5">
-        <v>2059.8319999999999</v>
+        <v>2060.067</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>663.12900000000002</v>
+        <v>663.36400000000003</v>
       </c>
       <c r="G5">
-        <v>2730.2689999999998</v>
+        <v>2730.5039999999999</v>
       </c>
       <c r="H5">
-        <v>3207.7330000000002</v>
+        <v>3207.9670000000001</v>
       </c>
       <c r="I5">
-        <v>1934.6389999999999</v>
+        <v>1934.873</v>
       </c>
       <c r="J5">
-        <v>2029.8989999999999</v>
+        <v>2030.133</v>
       </c>
       <c r="K5">
-        <v>737.55100000000004</v>
+        <v>737.78599999999994</v>
       </c>
       <c r="L5">
-        <v>1075.4659999999999</v>
+        <v>1075.701</v>
       </c>
       <c r="M5">
         <v>388.84699999999998</v>
       </c>
       <c r="N5">
-        <v>2184.5839999999998</v>
+        <v>2184.8180000000002</v>
       </c>
       <c r="O5">
-        <v>1837.239</v>
+        <v>1837.473</v>
       </c>
       <c r="P5">
-        <v>2045.635</v>
+        <v>2045.8689999999999</v>
       </c>
       <c r="Q5">
-        <v>254.733</v>
+        <v>254.96799999999999</v>
       </c>
       <c r="R5">
-        <v>2460.3220000000001</v>
+        <v>2460.2240000000002</v>
       </c>
       <c r="S5">
-        <v>1149.4590000000001</v>
+        <v>1149.693</v>
       </c>
       <c r="T5">
-        <v>2395.2950000000001</v>
+        <v>2395.529</v>
       </c>
       <c r="U5">
-        <v>2563.058</v>
+        <v>2563.2930000000001</v>
       </c>
       <c r="V5">
-        <v>4307.5119999999997</v>
+        <v>4307.7470000000003</v>
       </c>
       <c r="W5">
-        <v>5095.2979999999998</v>
+        <v>5095.5330000000004</v>
       </c>
       <c r="X5">
-        <v>4503.6670000000004</v>
+        <v>4503.9009999999998</v>
       </c>
       <c r="Y5">
-        <v>1725.806</v>
+        <v>1726.0409999999999</v>
       </c>
       <c r="Z5">
-        <v>1556.635</v>
+        <v>1556.8689999999999</v>
       </c>
       <c r="AA5">
-        <v>1670.059</v>
+        <v>1670.2940000000001</v>
       </c>
       <c r="AB5">
-        <v>1670.9369999999999</v>
+        <v>1671.171</v>
       </c>
       <c r="AC5">
-        <v>1534.51</v>
+        <v>1534.7439999999999</v>
       </c>
       <c r="AD5">
-        <v>1787.1579999999999</v>
+        <v>1787.3920000000001</v>
       </c>
       <c r="AE5">
-        <v>2379.1570000000002</v>
+        <v>2379.3910000000001</v>
       </c>
       <c r="AF5">
-        <v>1493.4780000000001</v>
+        <v>1493.712</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.45">
@@ -1513,7 +1501,7 @@
         <v>1399.211</v>
       </c>
       <c r="E6">
-        <v>663.31500000000005</v>
+        <v>663.31600000000003</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1552,7 +1540,7 @@
         <v>536.37800000000004</v>
       </c>
       <c r="R6">
-        <v>1799.701</v>
+        <v>1799.3689999999999</v>
       </c>
       <c r="S6">
         <v>488.83699999999999</v>
@@ -1564,7 +1552,7 @@
         <v>1902.4369999999999</v>
       </c>
       <c r="V6">
-        <v>3646.8879999999999</v>
+        <v>3646.8910000000001</v>
       </c>
       <c r="W6">
         <v>4434.6769999999997</v>
@@ -1662,13 +1650,13 @@
         <v>173.149</v>
       </c>
       <c r="V7">
-        <v>2126.4059999999999</v>
+        <v>2126.3980000000001</v>
       </c>
       <c r="W7">
-        <v>2914.192</v>
+        <v>2914.1840000000002</v>
       </c>
       <c r="X7">
-        <v>2322.5610000000001</v>
+        <v>2322.5529999999999</v>
       </c>
       <c r="Y7">
         <v>1019.0410000000001</v>
@@ -1697,7 +1685,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>3009.3440000000001</v>
@@ -1760,7 +1748,7 @@
         <v>645.17100000000005</v>
       </c>
       <c r="V8">
-        <v>1175.191</v>
+        <v>1175.1949999999999</v>
       </c>
       <c r="W8">
         <v>1962.98</v>
@@ -1831,7 +1819,7 @@
         <v>862.86300000000006</v>
       </c>
       <c r="M9">
-        <v>2158.8960000000002</v>
+        <v>2158.895</v>
       </c>
       <c r="N9">
         <v>252.83500000000001</v>
@@ -1846,7 +1834,7 @@
         <v>1807.7850000000001</v>
       </c>
       <c r="R9">
-        <v>528.572</v>
+        <v>528.24099999999999</v>
       </c>
       <c r="S9">
         <v>806</v>
@@ -1858,7 +1846,7 @@
         <v>631.30899999999997</v>
       </c>
       <c r="V9">
-        <v>2375.7600000000002</v>
+        <v>2375.7629999999999</v>
       </c>
       <c r="W9">
         <v>3163.549</v>
@@ -1944,7 +1932,7 @@
         <v>1903.6320000000001</v>
       </c>
       <c r="R10">
-        <v>543.32899999999995</v>
+        <v>542.99699999999996</v>
       </c>
       <c r="S10">
         <v>901.84699999999998</v>
@@ -2003,7 +1991,7 @@
         <v>1332.9739999999999</v>
       </c>
       <c r="E11">
-        <v>737.71</v>
+        <v>737.71100000000001</v>
       </c>
       <c r="F11">
         <v>77.105999999999995</v>
@@ -2042,7 +2030,7 @@
         <v>610.77300000000002</v>
       </c>
       <c r="R11">
-        <v>1733.4639999999999</v>
+        <v>1733.1320000000001</v>
       </c>
       <c r="S11">
         <v>422.601</v>
@@ -2054,7 +2042,7 @@
         <v>1836.2</v>
       </c>
       <c r="V11">
-        <v>3580.6509999999998</v>
+        <v>3580.654</v>
       </c>
       <c r="W11">
         <v>4368.4399999999996</v>
@@ -2125,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1299.9549999999999</v>
+        <v>1299.954</v>
       </c>
       <c r="N12">
         <v>1112.6849999999999</v>
@@ -2137,10 +2125,10 @@
         <v>973.73599999999999</v>
       </c>
       <c r="Q12">
-        <v>948.84299999999996</v>
+        <v>948.84400000000005</v>
       </c>
       <c r="R12">
-        <v>1388.423</v>
+        <v>1388.0909999999999</v>
       </c>
       <c r="S12">
         <v>83.819000000000003</v>
@@ -2152,7 +2140,7 @@
         <v>1491.16</v>
       </c>
       <c r="V12">
-        <v>3235.61</v>
+        <v>3235.6129999999998</v>
       </c>
       <c r="W12">
         <v>4023.3989999999999</v>
@@ -2238,7 +2226,7 @@
         <v>361.423</v>
       </c>
       <c r="R13">
-        <v>2684.377</v>
+        <v>2684.0459999999998</v>
       </c>
       <c r="S13">
         <v>1373.5139999999999</v>
@@ -2336,7 +2324,7 @@
         <v>2057.25</v>
       </c>
       <c r="R14">
-        <v>279.93099999999998</v>
+        <v>279.59899999999999</v>
       </c>
       <c r="S14">
         <v>1055.4659999999999</v>
@@ -2348,7 +2336,7 @@
         <v>382.66800000000001</v>
       </c>
       <c r="V14">
-        <v>2127.1190000000001</v>
+        <v>2127.1219999999998</v>
       </c>
       <c r="W14">
         <v>2914.9079999999999</v>
@@ -2419,7 +2407,7 @@
         <v>765.02499999999998</v>
       </c>
       <c r="M15">
-        <v>2061.058</v>
+        <v>2061.0569999999998</v>
       </c>
       <c r="N15">
         <v>354.92700000000002</v>
@@ -2434,7 +2422,7 @@
         <v>1709.9459999999999</v>
       </c>
       <c r="R15">
-        <v>630.66399999999999</v>
+        <v>630.33299999999997</v>
       </c>
       <c r="S15">
         <v>708.16200000000003</v>
@@ -2484,19 +2472,19 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>1845.5</v>
+        <v>1847.731</v>
       </c>
       <c r="C16">
-        <v>2545.058</v>
+        <v>2547.2890000000002</v>
       </c>
       <c r="D16">
         <v>130.822</v>
       </c>
       <c r="E16">
-        <v>2043.269</v>
+        <v>2045.5</v>
       </c>
       <c r="F16">
-        <v>1382.665</v>
+        <v>1384.896</v>
       </c>
       <c r="G16">
         <v>685.36099999999999</v>
@@ -2505,37 +2493,37 @@
         <v>1162.825</v>
       </c>
       <c r="I16">
-        <v>111.163</v>
+        <v>113.39400000000001</v>
       </c>
       <c r="J16">
-        <v>126.133</v>
+        <v>128.364</v>
       </c>
       <c r="K16">
-        <v>1315.8320000000001</v>
+        <v>1318.0630000000001</v>
       </c>
       <c r="L16">
-        <v>971.41</v>
+        <v>973.64099999999996</v>
       </c>
       <c r="M16">
-        <v>2267.442</v>
+        <v>2269.6729999999998</v>
       </c>
       <c r="N16">
         <v>139.67599999999999</v>
       </c>
       <c r="O16">
-        <v>211.73</v>
+        <v>213.96100000000001</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1916.3309999999999</v>
+        <v>1918.5619999999999</v>
       </c>
       <c r="R16">
-        <v>415.41399999999999</v>
+        <v>415.08199999999999</v>
       </c>
       <c r="S16">
-        <v>914.54700000000003</v>
+        <v>916.77800000000002</v>
       </c>
       <c r="T16">
         <v>350.387</v>
@@ -2544,7 +2532,7 @@
         <v>518.15</v>
       </c>
       <c r="V16">
-        <v>2262.6010000000001</v>
+        <v>2262.6039999999998</v>
       </c>
       <c r="W16">
         <v>3050.39</v>
@@ -2553,28 +2541,28 @@
         <v>2458.759</v>
       </c>
       <c r="Y16">
-        <v>332.48899999999998</v>
+        <v>334.72</v>
       </c>
       <c r="Z16">
-        <v>529.23800000000006</v>
+        <v>531.46900000000005</v>
       </c>
       <c r="AA16">
-        <v>376.58699999999999</v>
+        <v>378.81799999999998</v>
       </c>
       <c r="AB16">
-        <v>398.101</v>
+        <v>400.33199999999999</v>
       </c>
       <c r="AC16">
-        <v>514.35900000000004</v>
+        <v>516.59</v>
       </c>
       <c r="AD16">
-        <v>259.8</v>
+        <v>262.03100000000001</v>
       </c>
       <c r="AE16">
         <v>334.24900000000002</v>
       </c>
       <c r="AF16">
-        <v>618.69100000000003</v>
+        <v>620.92200000000003</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.45">
@@ -2630,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>2333.0639999999999</v>
+        <v>2332.732</v>
       </c>
       <c r="S17">
         <v>1022.201</v>
@@ -2642,7 +2630,7 @@
         <v>2435.8000000000002</v>
       </c>
       <c r="V17">
-        <v>4180.2510000000002</v>
+        <v>4180.2539999999999</v>
       </c>
       <c r="W17">
         <v>4968.04</v>
@@ -2713,7 +2701,7 @@
         <v>1388.6120000000001</v>
       </c>
       <c r="M18">
-        <v>2684.645</v>
+        <v>2684.6439999999998</v>
       </c>
       <c r="N18">
         <v>279.59300000000002</v>
@@ -2740,13 +2728,13 @@
         <v>108.675</v>
       </c>
       <c r="V18">
-        <v>1884.7280000000001</v>
+        <v>1884.7239999999999</v>
       </c>
       <c r="W18">
-        <v>2672.5169999999998</v>
+        <v>2672.51</v>
       </c>
       <c r="X18">
-        <v>2080.886</v>
+        <v>2080.8789999999999</v>
       </c>
       <c r="Y18">
         <v>749.69200000000001</v>
@@ -2826,7 +2814,7 @@
         <v>1022.473</v>
       </c>
       <c r="R19">
-        <v>1331.155</v>
+        <v>1330.8230000000001</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2924,7 +2912,7 @@
         <v>2276.681</v>
       </c>
       <c r="R20">
-        <v>123.23699999999999</v>
+        <v>122.90600000000001</v>
       </c>
       <c r="S20">
         <v>1274.896</v>
@@ -2936,13 +2924,13 @@
         <v>225.97399999999999</v>
       </c>
       <c r="V20">
-        <v>1992.896</v>
+        <v>1992.8889999999999</v>
       </c>
       <c r="W20">
-        <v>2780.6819999999998</v>
+        <v>2780.6750000000002</v>
       </c>
       <c r="X20">
-        <v>2189.0509999999999</v>
+        <v>2189.0439999999999</v>
       </c>
       <c r="Y20">
         <v>692.83900000000006</v>
@@ -3034,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>1959.9059999999999</v>
+        <v>1959.902</v>
       </c>
       <c r="W21">
-        <v>2747.6950000000002</v>
+        <v>2747.6880000000001</v>
       </c>
       <c r="X21">
-        <v>2156.0639999999999</v>
+        <v>2156.0569999999998</v>
       </c>
       <c r="Y21">
         <v>852.54399999999998</v>
@@ -3072,64 +3060,64 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>4103.8909999999996</v>
+        <v>4103.8940000000002</v>
       </c>
       <c r="C22">
-        <v>4803.4489999999996</v>
+        <v>4803.4530000000004</v>
       </c>
       <c r="D22">
-        <v>2354.9229999999998</v>
+        <v>2354.9270000000001</v>
       </c>
       <c r="E22">
-        <v>4301.66</v>
+        <v>4301.6629999999996</v>
       </c>
       <c r="F22">
-        <v>3641.056</v>
+        <v>3641.0590000000002</v>
       </c>
       <c r="G22">
-        <v>2121.3719999999998</v>
+        <v>2121.3670000000002</v>
       </c>
       <c r="H22">
         <v>1169.82</v>
       </c>
       <c r="I22">
-        <v>2369.5540000000001</v>
+        <v>2369.558</v>
       </c>
       <c r="J22">
-        <v>2384.5239999999999</v>
+        <v>2384.527</v>
       </c>
       <c r="K22">
-        <v>3574.223</v>
+        <v>3574.2260000000001</v>
       </c>
       <c r="L22">
         <v>3229.8040000000001</v>
       </c>
       <c r="M22">
-        <v>4525.8370000000004</v>
+        <v>4525.8360000000002</v>
       </c>
       <c r="N22">
-        <v>2120.7820000000002</v>
+        <v>2120.7849999999999</v>
       </c>
       <c r="O22">
-        <v>2470.1210000000001</v>
+        <v>2470.1239999999998</v>
       </c>
       <c r="P22">
-        <v>2256.3690000000001</v>
+        <v>2256.3719999999998</v>
       </c>
       <c r="Q22">
-        <v>4174.7219999999998</v>
+        <v>4174.7259999999997</v>
       </c>
       <c r="R22">
-        <v>1879.1030000000001</v>
+        <v>1879.0989999999999</v>
       </c>
       <c r="S22">
         <v>3172.9409999999998</v>
       </c>
       <c r="T22">
-        <v>1978.92</v>
+        <v>1978.913</v>
       </c>
       <c r="U22">
-        <v>1954.164</v>
+        <v>1954.1569999999999</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3141,28 +3129,28 @@
         <v>247.476</v>
       </c>
       <c r="Y22">
-        <v>2590.8809999999999</v>
+        <v>2590.884</v>
       </c>
       <c r="Z22">
-        <v>2787.6289999999999</v>
+        <v>2787.6320000000001</v>
       </c>
       <c r="AA22">
-        <v>2634.9780000000001</v>
+        <v>2634.9810000000002</v>
       </c>
       <c r="AB22">
-        <v>2656.4920000000002</v>
+        <v>2656.4949999999999</v>
       </c>
       <c r="AC22">
         <v>2772.7530000000002</v>
       </c>
       <c r="AD22">
-        <v>2518.192</v>
+        <v>2518.1950000000002</v>
       </c>
       <c r="AE22">
-        <v>1974.5809999999999</v>
+        <v>1974.577</v>
       </c>
       <c r="AF22">
-        <v>2877.0830000000001</v>
+        <v>2877.0859999999998</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.45">
@@ -3185,7 +3173,7 @@
         <v>4434.4059999999999</v>
       </c>
       <c r="G23">
-        <v>2914.7220000000002</v>
+        <v>2914.7150000000001</v>
       </c>
       <c r="H23">
         <v>1963.1669999999999</v>
@@ -3218,16 +3206,16 @@
         <v>4968.0730000000003</v>
       </c>
       <c r="R23">
-        <v>2672.4540000000002</v>
+        <v>2672.4459999999999</v>
       </c>
       <c r="S23">
         <v>3966.288</v>
       </c>
       <c r="T23">
-        <v>2772.2669999999998</v>
+        <v>2772.26</v>
       </c>
       <c r="U23">
-        <v>2747.511</v>
+        <v>2747.5039999999999</v>
       </c>
       <c r="V23">
         <v>838.01599999999996</v>
@@ -3257,7 +3245,7 @@
         <v>3311.5419999999999</v>
       </c>
       <c r="AE23">
-        <v>2767.9319999999998</v>
+        <v>2767.924</v>
       </c>
       <c r="AF23">
         <v>3670.433</v>
@@ -3283,7 +3271,7 @@
         <v>3843.95</v>
       </c>
       <c r="G24">
-        <v>2324.2660000000001</v>
+        <v>2324.2579999999998</v>
       </c>
       <c r="H24">
         <v>1372.711</v>
@@ -3301,7 +3289,7 @@
         <v>3432.6950000000002</v>
       </c>
       <c r="M24">
-        <v>4728.7280000000001</v>
+        <v>4728.7269999999999</v>
       </c>
       <c r="N24">
         <v>2323.6759999999999</v>
@@ -3316,16 +3304,16 @@
         <v>4377.6170000000002</v>
       </c>
       <c r="R24">
-        <v>2081.9969999999998</v>
+        <v>2081.9899999999998</v>
       </c>
       <c r="S24">
         <v>3375.8319999999999</v>
       </c>
       <c r="T24">
-        <v>2181.8110000000001</v>
+        <v>2181.8040000000001</v>
       </c>
       <c r="U24">
-        <v>2157.0549999999998</v>
+        <v>2157.0479999999998</v>
       </c>
       <c r="V24">
         <v>247.56</v>
@@ -3355,7 +3343,7 @@
         <v>2721.0859999999998</v>
       </c>
       <c r="AE24">
-        <v>2177.4760000000001</v>
+        <v>2177.4679999999998</v>
       </c>
       <c r="AF24">
         <v>3079.9769999999999</v>
@@ -3414,7 +3402,7 @@
         <v>1597.643</v>
       </c>
       <c r="R25">
-        <v>748.851</v>
+        <v>748.51900000000001</v>
       </c>
       <c r="S25">
         <v>595.85900000000004</v>
@@ -3426,7 +3414,7 @@
         <v>851.58799999999997</v>
       </c>
       <c r="V25">
-        <v>2596.0390000000002</v>
+        <v>2596.0419999999999</v>
       </c>
       <c r="W25">
         <v>3383.828</v>
@@ -3512,7 +3500,7 @@
         <v>1429.0640000000001</v>
       </c>
       <c r="R26">
-        <v>945.66300000000001</v>
+        <v>945.33100000000002</v>
       </c>
       <c r="S26">
         <v>427.28</v>
@@ -3610,7 +3598,7 @@
         <v>1543.316</v>
       </c>
       <c r="R27">
-        <v>791.98900000000003</v>
+        <v>791.65700000000004</v>
       </c>
       <c r="S27">
         <v>541.53200000000004</v>
@@ -3622,7 +3610,7 @@
         <v>894.726</v>
       </c>
       <c r="V27">
-        <v>2639.1759999999999</v>
+        <v>2639.18</v>
       </c>
       <c r="W27">
         <v>3426.9650000000001</v>
@@ -3708,7 +3696,7 @@
         <v>1544.634</v>
       </c>
       <c r="R28">
-        <v>814.84500000000003</v>
+        <v>814.51400000000001</v>
       </c>
       <c r="S28">
         <v>542.85</v>
@@ -3720,7 +3708,7 @@
         <v>917.58199999999999</v>
       </c>
       <c r="V28">
-        <v>2662.0329999999999</v>
+        <v>2662.0360000000001</v>
       </c>
       <c r="W28">
         <v>3449.8220000000001</v>
@@ -3806,7 +3794,7 @@
         <v>1407.116</v>
       </c>
       <c r="R29">
-        <v>930.15700000000004</v>
+        <v>929.82500000000005</v>
       </c>
       <c r="S29">
         <v>405.33199999999999</v>
@@ -3818,7 +3806,7 @@
         <v>1032.894</v>
       </c>
       <c r="V29">
-        <v>2777.3440000000001</v>
+        <v>2777.348</v>
       </c>
       <c r="W29">
         <v>3565.134</v>
@@ -3904,7 +3892,7 @@
         <v>1659.67</v>
       </c>
       <c r="R30">
-        <v>677.46100000000001</v>
+        <v>677.13</v>
       </c>
       <c r="S30">
         <v>657.88599999999997</v>
@@ -3916,7 +3904,7 @@
         <v>780.19799999999998</v>
       </c>
       <c r="V30">
-        <v>2524.6489999999999</v>
+        <v>2524.652</v>
       </c>
       <c r="W30">
         <v>3312.4380000000001</v>
@@ -4002,7 +3990,7 @@
         <v>2252.4549999999999</v>
       </c>
       <c r="R31">
-        <v>111.447</v>
+        <v>111.116</v>
       </c>
       <c r="S31">
         <v>1250.671</v>
@@ -4014,13 +4002,13 @@
         <v>214.184</v>
       </c>
       <c r="V31">
-        <v>1981.1030000000001</v>
+        <v>1981.0989999999999</v>
       </c>
       <c r="W31">
-        <v>2768.8919999999998</v>
+        <v>2768.8850000000002</v>
       </c>
       <c r="X31">
-        <v>2177.261</v>
+        <v>2177.2539999999999</v>
       </c>
       <c r="Y31">
         <v>668.61300000000006</v>
@@ -4048,8 +4036,8 @@
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1296.5830000000001</v>
@@ -4100,7 +4088,7 @@
         <v>1367.414</v>
       </c>
       <c r="R32">
-        <v>1035.2639999999999</v>
+        <v>1034.933</v>
       </c>
       <c r="S32">
         <v>365.63</v>
@@ -4144,103 +4132,6 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B66" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/matriz_distancia_km.xlsx
+++ b/data/matriz_distancia_km.xlsx
@@ -944,7 +944,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/matriz_distancia_km.xlsx
+++ b/data/matriz_distancia_km.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{2386D2C9-2928-420E-921C-8A021520EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B91A02BA-8791-47C9-AA5D-1D65F64B19DD}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{2386D2C9-2928-420E-921C-8A021520EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0AFFA9F-3025-4A8B-8626-FF23298F61C8}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4799A18B-3B60-4268-95BB-1F3B1A1CDF40}"/>
   </bookViews>
@@ -74,13 +74,13 @@
     <t>Temuco</t>
   </si>
   <si>
-    <t>Chiloé (Castro)</t>
-  </si>
-  <si>
     <t>La Serena</t>
   </si>
   <si>
     <t>Curanilahue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiloé </t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -987,13 +987,13 @@
         <v>12</v>
       </c>
       <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2532.0520000000001</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>865.63499999999999</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1926.9380000000001</v>

--- a/data/matriz_distancia_km.xlsx
+++ b/data/matriz_distancia_km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{2386D2C9-2928-420E-921C-8A021520EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0AFFA9F-3025-4A8B-8626-FF23298F61C8}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{2386D2C9-2928-420E-921C-8A021520EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D36465D-E49F-4BBF-842A-7C85433303E2}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4799A18B-3B60-4268-95BB-1F3B1A1CDF40}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{4799A18B-3B60-4268-95BB-1F3B1A1CDF40}"/>
   </bookViews>
   <sheets>
     <sheet name="distancia_km" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
